--- a/Parametric/Param_4.xlsx
+++ b/Parametric/Param_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Test: bpu_2 (Parameter = 4)</t>
   </si>
@@ -43,19 +43,37 @@
     <t xml:space="preserve">always_not_taken</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and it’s 1/5 of all mispredictions =&gt; 20% of 80% is main loop mispredicts. Tested branch is for() with 4 stages and one of them is NT. =&gt; 1/5(of all predictions) is predicted and 3/5(of all predictions) is mispredicted. =&gt; 3/5 + 1/5 = 80%</t>
+  </si>
+  <si>
     <t xml:space="preserve">always_taken</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and it’s 1/5 of all predictions =&gt; 20% is true. Tested branch is for() with 4 stages and one of them is NT. =&gt; 1/5(of all predictions) is mispredicted and 3/5(of all predictions) is predicted. =&gt; 1/5 = 20%</t>
+  </si>
+  <si>
     <t xml:space="preserve">backward_jumps</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken backward jump(unconditional) and it’s 1/5 of all predictions =&gt; 20% is right. Tested branch is for() with backward jump and it consists from 4 stages and one of them is NT. =&gt; 3/5 is predicted and 1/5 is mispredicted. 1/5 = 20%</t>
+  </si>
+  <si>
     <t xml:space="preserve">saturating_one_bit</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first time =&gt; 1/5 predictions is right. Tested branch is jump from for() and has 4 stages: T, T, T, NT =&gt; NT → T → T→ T→ NT… We have 2 right predicts and 2 fails(T when NT and after this NT when T). =&gt; only 2/5 is predicted right and other 2/5 is mispredicted. =&gt; 2/5 = 40%</t>
+  </si>
+  <si>
     <t xml:space="preserve">saturating_two_bits</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first time =&gt; 1/5 predictions is right. Tested branch is jump from for() and has 4 stages: T, T, T, NT =&gt; WNT → WT → ST→ ST→ WT → ST → ST… We have 3 right predicts and 1 fail(ST when NT). =&gt; only 3/5 is predicted right and other 1/5 is mispredicted. =&gt; 1/5 = 20%</t>
+  </si>
+  <si>
     <t xml:space="preserve">adaptive_two_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first two times =&gt; 1/3 of all predictions is true(0 misses). Tested branch is for() with 4 stages and one of them is NT. =&gt; 11101110111011101110… And we use history of last two bits, but pattern 11 has two condition after it 11 becomes 1 or becomes 0. =&gt; 11 – 1(miss), 11 – 0(miss), 10 – 1(right), 01 – 1(right). It is all loop =&gt; 2/5 of all predictions is right predicted and 2/5 of all is mispredicted. 2/5 = 40% </t>
   </si>
 </sst>
 </file>
@@ -65,7 +83,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -181,8 +199,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,52 +245,88 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.799998</v>
+        <v>0.799997</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.200002</v>
+        <v>0.200003</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.200002</v>
+        <v>0.200003</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0.4</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.200002</v>
+        <v>0.200003</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1.32E-005</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.400013</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Parametric/Param_4.xlsx
+++ b/Parametric/Param_4.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">always_taken</t>
   </si>
   <si>
-    <t xml:space="preserve">Main loop is always taken and it’s 1/5 of all predictions =&gt; 20% is true. Tested branch is for() with 4 stages and one of them is NT. =&gt; 1/5(of all predictions) is mispredicted and 3/5(of all predictions) is predicted. =&gt; 1/5 = 20%</t>
+    <t xml:space="preserve">Main loop is always taken and it’s 1/5 of all predictions =&gt; 20% is right predicted. Tested branch is for() with 4 stages and one of them is NT. =&gt; 1/5(of all predictions) is mispredicted and 3/5(of all predictions) is predicted. =&gt;  1/5 = 20%</t>
   </si>
   <si>
     <t xml:space="preserve">backward_jumps</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">adaptive_two_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first two times =&gt; 1/3 of all predictions is true(0 misses). Tested branch is for() with 4 stages and one of them is NT. =&gt; 11101110111011101110… And we use history of last two bits, but pattern 11 has two condition after it 11 becomes 1 or becomes 0. =&gt; 11 – 1(miss), 11 – 0(miss), 10 – 1(right), 01 – 1(right). It is all loop =&gt; 2/5 of all predictions is right predicted and 2/5 of all is mispredicted. 2/5 = 40% </t>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first two times =&gt; 1/5 of all predictions is true(0 misses). Tested branch is for() with 4 stages and one of them is NT. =&gt; 11101110111011101110… And we use history of last two bits, but pattern 11 has two condition after it 11 becomes 1 or becomes 0. =&gt; 11 – 1(miss), 11 – 0(miss), 10 – 1(right), 01 – 1(right). It is all loop =&gt; 2/5 of all predictions is right predicted and 2/5 of all is mispredicted. 2/5 = 40% </t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
